--- a/schedule/ВИБ21.xlsx
+++ b/schedule/ВИБ21.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -348,7 +348,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
